--- a/db/2025 archivos/FIXTURE COMPLETO JUEVES Y VIERNES.xlsx
+++ b/db/2025 archivos/FIXTURE COMPLETO JUEVES Y VIERNES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\smaidana\proyectos\entorno-php\src\sgt_mvc\db\2025 archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5C6B51-553C-4686-A510-C053096E9ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804DC936-922F-45FA-8801-0079617CAB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1785" windowWidth="20640" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VILLA DORA FEM" sheetId="1" r:id="rId1"/>
@@ -651,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -732,45 +732,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,9 +751,6 @@
     <xf numFmtId="20" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,6 +761,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,39 +1129,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="H2" s="32" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="H2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1225,7 +1222,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="45">
+      <c r="H4" s="32">
         <v>0.58333333333333337</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -1262,7 +1259,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="45">
+      <c r="H5" s="32">
         <v>0.625</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -1299,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="45">
+      <c r="H6" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -1336,7 +1333,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="45">
+      <c r="H7" s="32">
         <v>0.70833333333333304</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -1373,7 +1370,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="45">
+      <c r="H8" s="32">
         <v>0.75</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -1410,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="45">
+      <c r="H9" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="I9" s="12" t="s">
@@ -1446,7 +1443,7 @@
       <c r="F10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="32">
         <v>0.83333333333333304</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -1482,7 +1479,7 @@
       <c r="F11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="32">
         <v>0.875</v>
       </c>
       <c r="I11" s="12" t="s">
@@ -1519,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="45">
+      <c r="H12" s="32">
         <v>0.91666666666666696</v>
       </c>
       <c r="I12" s="12" t="s">
@@ -1554,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="45">
+      <c r="H13" s="32">
         <v>0.95833333333333304</v>
       </c>
       <c r="I13" s="12" t="s">
@@ -1571,40 +1568,40 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="34"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -1664,7 +1661,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="46">
+      <c r="H19" s="33">
         <v>0.41666666666666669</v>
       </c>
       <c r="I19" s="12" t="s">
@@ -1701,7 +1698,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="46">
+      <c r="H20" s="33">
         <v>0.45833333333333298</v>
       </c>
       <c r="I20" s="12" t="s">
@@ -1738,7 +1735,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="46">
+      <c r="H21" s="33">
         <v>0.5</v>
       </c>
       <c r="I21" s="12" t="s">
@@ -1775,7 +1772,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="46">
+      <c r="H22" s="33">
         <v>0.54166666666666696</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -1812,7 +1809,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="46">
+      <c r="H23" s="33">
         <v>0.58333333333333304</v>
       </c>
       <c r="I23" s="12" t="s">
@@ -1849,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="9"/>
-      <c r="H24" s="46">
+      <c r="H24" s="33">
         <v>0.625</v>
       </c>
       <c r="I24" s="12" t="s">
@@ -1886,7 +1883,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="9"/>
-      <c r="H25" s="46">
+      <c r="H25" s="33">
         <v>0.66666666666666696</v>
       </c>
       <c r="I25" s="12" t="s">
@@ -1923,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="G26" s="9"/>
-      <c r="H26" s="46">
+      <c r="H26" s="33">
         <v>0.70833333333333304</v>
       </c>
       <c r="I26" s="12" t="s">
@@ -1960,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="9"/>
-      <c r="H27" s="46">
+      <c r="H27" s="33">
         <v>0.75</v>
       </c>
       <c r="I27" s="12" t="s">
@@ -1993,7 +1990,7 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="46">
+      <c r="H28" s="33">
         <v>0.79166666666666696</v>
       </c>
       <c r="I28" s="12" t="s">
@@ -2002,7 +1999,7 @@
       <c r="J28" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="47" t="s">
+      <c r="K28" s="34" t="s">
         <v>3</v>
       </c>
       <c r="L28" s="12" t="s">
@@ -2071,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,22 +2080,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -2121,7 +2118,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="32">
         <v>0.58333333333333337</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -2130,7 +2127,7 @@
       <c r="C4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -2141,7 +2138,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="32">
         <v>0.625</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -2150,7 +2147,7 @@
       <c r="C5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -2161,7 +2158,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -2170,7 +2167,7 @@
       <c r="C6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -2181,7 +2178,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="32">
         <v>0.70833333333333337</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -2190,7 +2187,7 @@
       <c r="C7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -2201,7 +2198,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="32">
         <v>0.75</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -2210,7 +2207,7 @@
       <c r="C8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -2221,7 +2218,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -2230,7 +2227,7 @@
       <c r="C9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -2241,7 +2238,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="32">
         <v>0.83333333333333304</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -2250,10 +2247,10 @@
       <c r="C10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="48" t="s">
+      <c r="D10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="13">
@@ -2261,7 +2258,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="32">
         <v>0.875</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -2270,18 +2267,18 @@
       <c r="C11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="32">
         <v>0.91666666666666696</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2290,7 +2287,7 @@
       <c r="C12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -2325,14 +2322,14 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -2355,7 +2352,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="A18" s="32">
         <v>0.41666666666666669</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -2364,7 +2361,7 @@
       <c r="C18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="12" t="s">
         <v>48</v>
       </c>
@@ -2373,7 +2370,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+      <c r="A19" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2382,7 +2379,7 @@
       <c r="C19" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="47"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="12" t="s">
         <v>55</v>
       </c>
@@ -2391,7 +2388,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
+      <c r="A20" s="32">
         <v>0.5</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2400,7 +2397,7 @@
       <c r="C20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="47"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="12" t="s">
         <v>51</v>
       </c>
@@ -2409,25 +2406,25 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
-        <v>0.54166666666666696</v>
+      <c r="A21" s="32">
+        <v>0.75</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="47"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="13">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
+      <c r="A22" s="32">
         <v>0.58333333333333304</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -2436,7 +2433,7 @@
       <c r="C22" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="47"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="12" t="s">
         <v>48</v>
       </c>
@@ -2445,7 +2442,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="45">
+      <c r="A23" s="32">
         <v>0.625</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -2454,7 +2451,7 @@
       <c r="C23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="12" t="s">
         <v>55</v>
       </c>
@@ -2463,7 +2460,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="45">
+      <c r="A24" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -2472,8 +2469,8 @@
       <c r="C24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48" t="s">
+      <c r="D24" s="34"/>
+      <c r="E24" s="35" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="13">
@@ -2481,7 +2478,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
+      <c r="A25" s="32">
         <v>0.70833333333333304</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -2490,30 +2487,30 @@
       <c r="C25" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="47"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="36">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
+      <c r="A26" s="32">
         <v>0.75</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="12">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="F26" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2599,39 +2596,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="H2" s="35" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="H2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -2673,7 +2670,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="32">
         <v>0.58333333333333337</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -2690,7 +2687,7 @@
         <v>76</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="45">
+      <c r="H4" s="32">
         <v>0.58333333333333337</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -2708,7 +2705,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="32">
         <v>0.625</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -2725,7 +2722,7 @@
         <v>76</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="45">
+      <c r="H5" s="32">
         <v>0.625</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -2743,7 +2740,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -2760,7 +2757,7 @@
         <v>76</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="45">
+      <c r="H6" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -2778,7 +2775,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="32">
         <v>0.70833333333333304</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -2795,7 +2792,7 @@
         <v>76</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="45">
+      <c r="H7" s="32">
         <v>0.70833333333333304</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -2813,7 +2810,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="32">
         <v>0.75</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -2830,7 +2827,7 @@
         <v>76</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="45">
+      <c r="H8" s="32">
         <v>0.75</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -2848,7 +2845,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -2932,39 +2929,39 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="48"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="H16" s="35" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="H16" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -3006,7 +3003,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="A18" s="32">
         <v>0.41666666666666669</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -3023,7 +3020,7 @@
         <v>76</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="45">
+      <c r="H18" s="32">
         <v>0.41666666666666669</v>
       </c>
       <c r="I18" s="12" t="s">
@@ -3041,7 +3038,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+      <c r="A19" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -3058,7 +3055,7 @@
         <v>76</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="45">
+      <c r="H19" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="I19" s="12" t="s">
@@ -3076,7 +3073,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
+      <c r="A20" s="32">
         <v>0.5</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -3093,7 +3090,7 @@
         <v>76</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="45">
+      <c r="H20" s="32">
         <v>0.5</v>
       </c>
       <c r="I20" s="12" t="s">
@@ -3111,7 +3108,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
+      <c r="A21" s="32">
         <v>0.54166666666666696</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -3128,7 +3125,7 @@
         <v>76</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="45">
+      <c r="H21" s="32">
         <v>0.54166666666666696</v>
       </c>
       <c r="I21" s="12" t="s">
@@ -3146,7 +3143,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="51">
+      <c r="A22" s="38">
         <v>0.58333333333333337</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -3163,7 +3160,7 @@
         <v>76</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="45">
+      <c r="H22" s="32">
         <v>0.58333333333333304</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -3181,7 +3178,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="52">
+      <c r="A23" s="4">
         <v>0.625</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -3198,7 +3195,7 @@
         <v>80</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="45">
+      <c r="H23" s="32">
         <v>0.625</v>
       </c>
       <c r="I23" s="12" t="s">
@@ -3216,7 +3213,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
+      <c r="A24" s="4">
         <v>0.66666666666666663</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -3232,7 +3229,7 @@
       <c r="F24" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="I24" s="12" t="s">
@@ -3305,7 +3302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -3330,54 +3327,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="34"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="H2" s="42" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="H2" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="O2" s="42" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="O2" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="55"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -3436,7 +3433,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="32">
         <v>0.58333333333333337</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -3454,7 +3451,7 @@
       <c r="F4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="32">
         <v>0.58333333333333337</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -3472,7 +3469,7 @@
       <c r="M4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="32">
         <v>0.58333333333333337</v>
       </c>
       <c r="P4" s="12" t="s">
@@ -3492,7 +3489,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="32">
         <v>0.625</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -3510,7 +3507,7 @@
       <c r="F5" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="32">
         <v>0.625</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -3528,7 +3525,7 @@
       <c r="M5" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="32">
         <v>0.625</v>
       </c>
       <c r="P5" s="12" t="s">
@@ -3548,7 +3545,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -3566,7 +3563,7 @@
       <c r="F6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -3584,7 +3581,7 @@
       <c r="M6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="45">
+      <c r="O6" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="P6" s="12" t="s">
@@ -3604,7 +3601,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="32">
         <v>0.70833333333333304</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -3622,7 +3619,7 @@
       <c r="F7" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="32">
         <v>0.70833333333333304</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -3640,7 +3637,7 @@
       <c r="M7" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="32">
         <v>0.70833333333333304</v>
       </c>
       <c r="P7" s="12" t="s">
@@ -3660,7 +3657,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="32">
         <v>0.75</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -3678,7 +3675,7 @@
       <c r="F8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="32">
         <v>0.75</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -3696,7 +3693,7 @@
       <c r="M8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="32">
         <v>0.75</v>
       </c>
       <c r="P8" s="12" t="s">
@@ -3716,7 +3713,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -3734,7 +3731,7 @@
       <c r="F9" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="I9" s="12" t="s">
@@ -3752,7 +3749,7 @@
       <c r="M9" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="O9" s="45">
+      <c r="O9" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="P9" s="12" t="s">
@@ -3772,19 +3769,19 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="32">
         <v>0.83333333333333304</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="35" t="s">
         <v>102</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="35" t="s">
         <v>105</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -3877,46 +3874,46 @@
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="45"/>
     </row>
     <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="H16" s="42" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55"/>
+      <c r="H16" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="55"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
@@ -3958,7 +3955,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="A18" s="32">
         <v>0.41666666666666669</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -3976,7 +3973,7 @@
       <c r="F18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="32">
         <v>0.41666666666666669</v>
       </c>
       <c r="I18" s="12" t="s">
@@ -3996,7 +3993,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+      <c r="A19" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -4014,7 +4011,7 @@
       <c r="F19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="I19" s="12" t="s">
@@ -4034,7 +4031,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
+      <c r="A20" s="32">
         <v>0.5</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -4052,7 +4049,7 @@
       <c r="F20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="32">
         <v>0.5</v>
       </c>
       <c r="I20" s="12" t="s">
@@ -4072,7 +4069,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
+      <c r="A21" s="32">
         <v>0.54166666666666696</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -4090,7 +4087,7 @@
       <c r="F21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="32">
         <v>0.54166666666666696</v>
       </c>
       <c r="I21" s="12" t="s">
@@ -4110,7 +4107,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
+      <c r="A22" s="32">
         <v>0.58333333333333304</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -4128,7 +4125,7 @@
       <c r="F22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="32">
         <v>0.58333333333333304</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -4148,7 +4145,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="45">
+      <c r="A23" s="32">
         <v>0.625</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -4166,7 +4163,7 @@
       <c r="F23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="32">
         <v>0.625</v>
       </c>
       <c r="I23" s="12" t="s">
@@ -4186,7 +4183,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="45">
+      <c r="A24" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -4204,7 +4201,7 @@
       <c r="F24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="I24" s="12" t="s">
@@ -4216,7 +4213,7 @@
       <c r="K24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="48" t="s">
+      <c r="L24" s="35" t="s">
         <v>110</v>
       </c>
       <c r="M24" s="13" t="s">
@@ -4224,7 +4221,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
+      <c r="A25" s="32">
         <v>0.70833333333333304</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -4242,7 +4239,7 @@
       <c r="F25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="32">
         <v>0.70833333333333304</v>
       </c>
       <c r="I25" s="12" t="s">
@@ -4262,7 +4259,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
+      <c r="A26" s="32">
         <v>0.75</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -4280,7 +4277,7 @@
       <c r="F26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="32">
         <v>0.75</v>
       </c>
       <c r="I26" s="12" t="s">
@@ -4300,79 +4297,79 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="45">
+      <c r="A27" s="32">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="53" t="s">
+      <c r="D27" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="32">
         <v>0.79166666666666696</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="39" t="s">
         <v>107</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K27" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="53" t="s">
+      <c r="K27" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="M27" s="55" t="s">
+      <c r="M27" s="41" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="45">
+      <c r="A28" s="32">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="49" t="s">
+      <c r="D28" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="36" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="45">
+      <c r="H28" s="32">
         <v>0.83333333333333304</v>
       </c>
-      <c r="I28" s="53" t="s">
+      <c r="I28" s="39" t="s">
         <v>107</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="K28" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="L28" s="49" t="s">
+      <c r="K28" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="M28" s="55" t="s">
+      <c r="M28" s="41" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4393,13 +4390,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A15:T15"/>
     <mergeCell ref="H16:M16"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="O2:T2"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A15:T15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
